--- a/reports/pycaret_compare_results.xlsx
+++ b/reports/pycaret_compare_results.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,533 +496,225 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Bayesian Ridge</t>
+          <t>Orthogonal Matching Pursuit</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.302</v>
+        <v>0.3012</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.124</v>
+        <v>0.1244</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.3522</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0.0027</v>
+        <v>0.3527</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.0015</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.2461</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.4653</v>
+        <v>0.4623</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.289</v>
+        <v>1.2367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Lasso Regression</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>0.3013</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.1247</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.3532</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0.2468</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.4605</v>
+          <t>Bayesian Ridge</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.3009</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.1244</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.3527</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.2461</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.4616</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.0351</v>
+        <v>45.6495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Elastic Net</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>0.3013</v>
+          <t>Ridge Regression</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.3017</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.1247</v>
+        <v>0.1245</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3532</v>
+        <v>0.3528</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0.2468</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.4605</v>
+        <v>0.0013</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.2461</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.4637</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.0202</v>
+        <v>2.0435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Lasso Least Angle Regression</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>0.3013</v>
+          <t>Linear Regression</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.3017</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.1247</v>
+        <v>0.1245</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3532</v>
+        <v>0.3528</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0.2468</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0.4605</v>
+        <v>0.0013</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.2461</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.4637</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.0297</v>
+        <v>9.226599999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>AdaBoost Regressor</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.3038</v>
+          <t>Lasso Regression</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.2991</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.1255</v>
+        <v>0.1246</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3543</v>
+        <v>0.353</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.0091</v>
+        <v>-0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.2479</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.4716</v>
+        <v>0.2463</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.4565</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.7128</v>
+        <v>1.5453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.3075</v>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.2991</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.1277</v>
+        <v>0.1246</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3573</v>
+        <v>0.353</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.0267</v>
+        <v>-0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.4806</v>
+        <v>0.2463</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.4565</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>5.4908</v>
+        <v>2.0435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Orthogonal Matching Pursuit</t>
+          <t>Least Angle Regression</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.3072</v>
+        <v>0.3022</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.1278</v>
+        <v>0.1246</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3575</v>
+        <v>0.353</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.0275</v>
+        <v>-0.0002</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.2493</v>
+        <v>0.2463</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.4842</v>
+        <v>0.4649</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.0358</v>
+        <v>1.7316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0.3075</v>
+          <t>Lasso Least Angle Regression</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.2991</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.1284</v>
+        <v>0.1246</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3583</v>
+        <v>0.353</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0.4799</v>
+        <v>0.2463</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.4565</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>3.9122</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Extreme Gradient Boosting</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0.3078</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.1285</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0.3585</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>-0.0332</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0.4795</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.9406</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Extra Trees Regressor</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0.3122</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0.1332</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>-0.0712</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0.4926</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>4.4775</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>CatBoost Regressor</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0.3117</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0.1339</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0.3659</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>-0.07630000000000001</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0.4957</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>7.5421</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Ridge Regression</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0.3146</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0.1381</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0.3716</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>-0.1103</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>0.0377</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Light Gradient Boosting Machine</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>0.3156</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0.1381</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0.3716</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>-0.1102</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0.2579</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0.5034</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>0.5322</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Support Vector Machine</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>0.3147</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0.1382</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0.3717</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>-0.1109</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0.2579</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0.5063</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>1.6325</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>0.3164</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0.1403</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0.3745</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>-0.1277</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0.2599</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0.5155</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0.0824</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>K Neighbors Regressor</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>0.3213</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0.1446</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0.3803</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>-0.1629</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0.2647</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0.5248</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>0.0607</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Least Angle Regression</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0.1583</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0.3978</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>-0.2722</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0.2734</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0.5598</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>0.2572</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Passive Aggressive Regressor</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>0.3436</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0.1719</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0.4143</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>-0.3838</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>0.0557</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>0.3876</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0.2406</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0.4905</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>-0.9354</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0.3405</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0.7089</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>0.2376</v>
+        <v>1.1629</v>
       </c>
     </row>
   </sheetData>

--- a/reports/pycaret_compare_results.xlsx
+++ b/reports/pycaret_compare_results.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
         <v>0.4623</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.2367</v>
+        <v>1.3055</v>
       </c>
     </row>
     <row r="3">
@@ -546,7 +546,7 @@
         <v>0.4616</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.6495</v>
+        <v>37.0157</v>
       </c>
     </row>
     <row r="4">
@@ -574,7 +574,7 @@
         <v>0.4637</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.0435</v>
+        <v>6.7043</v>
       </c>
     </row>
     <row r="5">
@@ -602,41 +602,41 @@
         <v>0.4637</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.226599999999999</v>
+        <v>6.2805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Lasso Regression</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0.2991</v>
+          <t>Automatic Relevance Determination</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.3008</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.1246</v>
+        <v>0.1245</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.353</v>
+        <v>0.3529</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0</v>
+        <v>0.0009</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.2463</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0.4565</v>
+        <v>0.2462</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.4607</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.5453</v>
+        <v>14.436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Elastic Net</t>
+          <t>Lasso Regression</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
@@ -658,17 +658,17 @@
         <v>0.4565</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>2.0435</v>
+        <v>2.7285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Least Angle Regression</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0.3022</v>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.2991</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.1246</v>
@@ -677,26 +677,26 @@
         <v>0.353</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.0002</v>
+        <v>-0</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0.2463</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>0.4649</v>
+      <c r="G8" s="3" t="n">
+        <v>0.4565</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>1.7316</v>
+        <v>2.0007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Lasso Least Angle Regression</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>0.2991</v>
+          <t>Least Angle Regression</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.3022</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.1246</v>
@@ -705,16 +705,44 @@
         <v>0.353</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0</v>
+        <v>-0.0002</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0.2463</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="2" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.4324</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Lasso Least Angle Regression</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.2991</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.1246</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.2463</v>
+      </c>
+      <c r="G10" s="3" t="n">
         <v>0.4565</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1.1629</v>
+      <c r="H10" s="4" t="n">
+        <v>1.4809</v>
       </c>
     </row>
   </sheetData>
